--- a/4-course-7-semester/economic-dynamics-models/task-2/results/gdp_growth_gdp_per_capita_2019.xlsx
+++ b/4-course-7-semester/economic-dynamics-models/task-2/results/gdp_growth_gdp_per_capita_2019.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Bermuda</t>
   </si>
@@ -78,7 +78,7 @@
     <t>Brunei Darussalam</t>
   </si>
   <si>
-    <t>Central Europe and the Baltics</t>
+    <t>Chile</t>
   </si>
   <si>
     <t>Curacao</t>
@@ -90,21 +90,18 @@
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Europe &amp; Central Asia</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>European Union</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
+    <t>Croatia</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -135,6 +132,15 @@
     <t>Oman</t>
   </si>
   <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -165,24 +171,15 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Africa Eastern and Southern</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Africa Western and Central</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Arab World</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Caribbean small states</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -282,18 +273,6 @@
     <t>Algeria</t>
   </si>
   <si>
-    <t>East Asia &amp; Pacific (excluding high income)</t>
-  </si>
-  <si>
-    <t>Early-demographic dividend</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (excluding high income)</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -303,9 +282,6 @@
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Fragile and conflict affected situations</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
@@ -345,33 +321,12 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Heavily indebted poor countries (HIPC)</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
-    <t>IBRD only</t>
-  </si>
-  <si>
-    <t>IDA &amp; IBRD total</t>
-  </si>
-  <si>
-    <t>IDA total</t>
-  </si>
-  <si>
-    <t>IDA blend</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>IDA only</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -402,9 +357,6 @@
     <t>Kiribati</t>
   </si>
   <si>
-    <t>Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
     <t>Lao PDR</t>
   </si>
   <si>
@@ -420,30 +372,12 @@
     <t>St. Lucia</t>
   </si>
   <si>
-    <t>Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t>Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t>Low income</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>Low &amp; middle income</t>
-  </si>
-  <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>Late-demographic dividend</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -456,18 +390,12 @@
     <t>Maldives</t>
   </si>
   <si>
-    <t>Middle East &amp; North Africa</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>Marshall Islands</t>
   </si>
   <si>
-    <t>Middle income</t>
-  </si>
-  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -477,9 +405,6 @@
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -519,42 +444,21 @@
     <t>Nauru</t>
   </si>
   <si>
-    <t>Other small states</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Palau</t>
-  </si>
-  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Pre-demographic dividend</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>West Bank and Gaza</t>
-  </si>
-  <si>
-    <t>Pacific island small states</t>
-  </si>
-  <si>
     <t>Romania</t>
   </si>
   <si>
@@ -588,15 +492,6 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Small states</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -609,12 +504,6 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -627,24 +516,12 @@
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Timor-Leste</t>
   </si>
   <si>
-    <t>Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -663,9 +540,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -678,9 +552,6 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -723,9 +594,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Euro area</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -741,9 +609,6 @@
     <t>Guam</t>
   </si>
   <si>
-    <t>High income</t>
-  </si>
-  <si>
     <t>Hong Kong SAR, China</t>
   </si>
   <si>
@@ -757,12 +622,6 @@
   </si>
   <si>
     <t>New Zealand</t>
-  </si>
-  <si>
-    <t>OECD members</t>
-  </si>
-  <si>
-    <t>Post-demographic dividend</t>
   </si>
   <si>
     <t>San Marino</t>
@@ -1129,7 +988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1163,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1183,10 +1042,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1200,10 +1059,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1217,10 +1076,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1234,10 +1093,10 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1251,10 +1110,10 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1268,10 +1127,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1285,10 +1144,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1302,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1319,10 +1178,10 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1336,10 +1195,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1353,10 +1212,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1370,10 +1229,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1387,10 +1246,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1401,10 +1260,10 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1415,10 +1274,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1429,10 +1288,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1443,10 +1302,10 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1457,10 +1316,10 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1471,10 +1330,10 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1485,10 +1344,7 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1499,10 +1355,7 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1513,10 +1366,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1527,10 +1377,7 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1541,7 +1388,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1552,7 +1399,7 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1563,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1574,7 +1421,7 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1585,7 +1432,7 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1596,7 +1443,7 @@
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1607,7 +1454,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1618,7 +1465,7 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1629,7 +1476,7 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1640,7 +1487,7 @@
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1651,23 +1498,29 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1675,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1683,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1691,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1699,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1707,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1715,7 +1568,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1723,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1731,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1739,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1747,7 +1600,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1755,7 +1608,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1763,7 +1616,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1771,7 +1624,7 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1779,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1787,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1795,7 +1648,7 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1803,7 +1656,7 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1811,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1819,7 +1672,7 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1827,7 +1680,7 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1835,7 +1688,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1843,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1851,7 +1704,7 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1859,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1867,7 +1720,7 @@
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1875,7 +1728,7 @@
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1883,7 +1736,7 @@
         <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1891,7 +1744,7 @@
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1899,7 +1752,7 @@
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1907,7 +1760,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1915,7 +1768,7 @@
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1923,7 +1776,7 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1931,7 +1784,7 @@
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1939,7 +1792,7 @@
         <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1947,7 +1800,7 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1955,7 +1808,7 @@
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1963,7 +1816,7 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1971,7 +1824,7 @@
         <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1979,7 +1832,7 @@
         <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1987,7 +1840,7 @@
         <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1995,7 +1848,7 @@
         <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2003,7 +1856,7 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2011,7 +1864,7 @@
         <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2019,7 +1872,7 @@
         <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2027,7 +1880,7 @@
         <v>81</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2035,7 +1888,7 @@
         <v>82</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2043,7 +1896,7 @@
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2051,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2059,7 +1912,7 @@
         <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2067,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2075,7 +1928,7 @@
         <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2083,7 +1936,7 @@
         <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2091,7 +1944,7 @@
         <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2099,7 +1952,7 @@
         <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2107,7 +1960,7 @@
         <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2115,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2123,7 +1976,7 @@
         <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2131,7 +1984,7 @@
         <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2139,7 +1992,7 @@
         <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2147,7 +2000,7 @@
         <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2155,7 +2008,7 @@
         <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2163,7 +2016,7 @@
         <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2171,7 +2024,7 @@
         <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2179,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2187,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2195,7 +2048,7 @@
         <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2203,7 +2056,7 @@
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2211,7 +2064,7 @@
         <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2219,7 +2072,7 @@
         <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2227,7 +2080,7 @@
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2235,7 +2088,7 @@
         <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2243,7 +2096,7 @@
         <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2251,7 +2104,7 @@
         <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2259,7 +2112,7 @@
         <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2267,7 +2120,7 @@
         <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2275,7 +2128,7 @@
         <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2283,7 +2136,7 @@
         <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2291,7 +2144,7 @@
         <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2299,7 +2152,7 @@
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2307,7 +2160,7 @@
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2315,7 +2168,7 @@
         <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2323,7 +2176,7 @@
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2331,7 +2184,7 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2339,7 +2192,7 @@
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2347,7 +2200,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2355,7 +2208,7 @@
         <v>122</v>
       </c>
       <c r="D124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2363,7 +2216,7 @@
         <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2371,7 +2224,7 @@
         <v>124</v>
       </c>
       <c r="D126" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2379,7 +2232,7 @@
         <v>125</v>
       </c>
       <c r="D127" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2387,7 +2240,7 @@
         <v>126</v>
       </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2395,7 +2248,7 @@
         <v>127</v>
       </c>
       <c r="D129" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2403,7 +2256,7 @@
         <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2411,7 +2264,7 @@
         <v>129</v>
       </c>
       <c r="D131" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2419,7 +2272,7 @@
         <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2427,7 +2280,7 @@
         <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2435,367 +2288,7 @@
         <v>132</v>
       </c>
       <c r="D134" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="D135" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="D136" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="D137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="D145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="D146" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="D149" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="D150" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="D154" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="D156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="D159" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="D160" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="D161" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="D163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="D164" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="D165" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="D166" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="D167" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="D170" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="D171" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="D174" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="D175" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="D178" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2839,7 +2332,7 @@
         <v>-2.08560029017048</v>
       </c>
       <c r="D2">
-        <v>2.0259406786066</v>
+        <v>3.911603419423</v>
       </c>
       <c r="E2">
         <v>6.90566549200324</v>
@@ -2859,7 +2352,7 @@
         <v>4.86223616575663</v>
       </c>
       <c r="D3">
-        <v>3.911603419423</v>
+        <v>-0.69999999780272</v>
       </c>
       <c r="F3">
         <v>3.41153868634566</v>
@@ -2876,7 +2369,7 @@
         <v>2.1669646688237</v>
       </c>
       <c r="D4">
-        <v>3.20254418665031</v>
+        <v>2.08806337615015</v>
       </c>
       <c r="F4">
         <v>2.11314942462376</v>
@@ -2893,7 +2386,7 @@
         <v>1.89616370306027</v>
       </c>
       <c r="D5">
-        <v>-0.69999999780272</v>
+        <v>-2.0259342366392</v>
       </c>
       <c r="F5">
         <v>1.49121084953705</v>
@@ -2910,7 +2403,7 @@
         <v>-0.610274655893093</v>
       </c>
       <c r="D6">
-        <v>2.08806337615015</v>
+        <v>7.59999999853918</v>
       </c>
       <c r="F6">
         <v>2.11153164412327</v>
@@ -2927,7 +2420,7 @@
         <v>3.86910986506845</v>
       </c>
       <c r="D7">
-        <v>1.58631931630194</v>
+        <v>-0.487804878048777</v>
       </c>
       <c r="F7">
         <v>1.87959202770178</v>
@@ -2941,10 +2434,10 @@
         <v>2.43482300037417</v>
       </c>
       <c r="C8">
-        <v>4.07210227732671</v>
+        <v>0.7705395838990799</v>
       </c>
       <c r="D8">
-        <v>-2.0259342366392</v>
+        <v>2.50000006743734</v>
       </c>
       <c r="F8">
         <v>1.05550824713283</v>
@@ -2961,10 +2454,10 @@
         <v>-3.37179982634609</v>
       </c>
       <c r="D9">
-        <v>7.59999999853918</v>
+        <v>1.81256532401552</v>
       </c>
       <c r="F9">
-        <v>1.57773625423422</v>
+        <v>1.22075414302529</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2978,10 +2471,10 @@
         <v>5.28318739627791</v>
       </c>
       <c r="D10">
-        <v>-0.487804878048777</v>
+        <v>6.86568733550151</v>
       </c>
       <c r="F10">
-        <v>1.22075414302529</v>
+        <v>1.84297181445896</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2995,10 +2488,10 @@
         <v>3.02947825716996</v>
       </c>
       <c r="D11">
-        <v>2.50000006743734</v>
+        <v>5.68811514943657</v>
       </c>
       <c r="F11">
-        <v>1.84297181445896</v>
+        <v>1.67194419724758</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3009,13 +2502,13 @@
         <v>0.745798219243483</v>
       </c>
       <c r="C12">
-        <v>1.82160702562607</v>
+        <v>2.08519142117105</v>
       </c>
       <c r="D12">
-        <v>1.81256532401552</v>
+        <v>7.88191515117722</v>
       </c>
       <c r="F12">
-        <v>1.67194419724758</v>
+        <v>2.27131094286585</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3026,13 +2519,13 @@
         <v>0.7748083913806449</v>
       </c>
       <c r="C13">
-        <v>2.08519142117105</v>
+        <v>4.09634264397782</v>
       </c>
       <c r="D13">
-        <v>6.86568733550151</v>
+        <v>4.03759208211947</v>
       </c>
       <c r="F13">
-        <v>2.27131094286585</v>
+        <v>2.53899165759883</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3043,13 +2536,13 @@
         <v>1.09567256732588</v>
       </c>
       <c r="C14">
-        <v>4.09634264397782</v>
+        <v>1.80359525615141</v>
       </c>
       <c r="D14">
-        <v>5.68811514943657</v>
+        <v>2.83100140253532</v>
       </c>
       <c r="F14">
-        <v>2.53899165759883</v>
+        <v>-1.67826662178294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3060,13 +2553,13 @@
         <v>2.28886986777364</v>
       </c>
       <c r="C15">
-        <v>1.82781567132075</v>
+        <v>3.48194560339674</v>
       </c>
       <c r="D15">
-        <v>7.88191515117722</v>
+        <v>1.40000000000001</v>
       </c>
       <c r="F15">
-        <v>1.77992466266073</v>
+        <v>3.77358980957163</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3074,13 +2567,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.80359525615141</v>
+        <v>4.55406307213036</v>
       </c>
       <c r="D16">
-        <v>4.03759208211947</v>
+        <v>1.9649963024263</v>
       </c>
       <c r="F16">
-        <v>-1.67826662178294</v>
+        <v>-0.240350840922716</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3088,13 +2581,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.55406307213036</v>
+        <v>0.500233912506772</v>
       </c>
       <c r="D17">
-        <v>2.83100140253532</v>
+        <v>2.21670563961031</v>
       </c>
       <c r="F17">
-        <v>3.77358980957163</v>
+        <v>1.95558841574046</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3102,13 +2595,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.500233912506772</v>
+        <v>4.80398495601084</v>
       </c>
       <c r="D18">
-        <v>1.40000000000001</v>
+        <v>1.22077782271943</v>
       </c>
       <c r="F18">
-        <v>-0.240350840922716</v>
+        <v>2.19247721643698</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3116,13 +2609,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.80398495601084</v>
+        <v>2.24397786011012</v>
       </c>
       <c r="D19">
-        <v>1.9649963024263</v>
+        <v>5.75516999309463</v>
       </c>
       <c r="F19">
-        <v>1.95558841574046</v>
+        <v>2.06569082920953</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3130,13 +2623,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.24397786011012</v>
+        <v>-0.551959287835274</v>
       </c>
       <c r="D20">
-        <v>2.21670563961031</v>
+        <v>3.34891013913392</v>
       </c>
       <c r="F20">
-        <v>2.19247721643698</v>
+        <v>1.98619587380391</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3144,13 +2637,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.551959287835274</v>
+        <v>4.57377173669815</v>
       </c>
       <c r="D21">
-        <v>1.22077782271943</v>
+        <v>3.09999999999999</v>
       </c>
       <c r="F21">
-        <v>1.74739224770771</v>
+        <v>2.77777777777777</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3158,13 +2651,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>4.57377173669815</v>
+        <v>2.48432635462976</v>
       </c>
       <c r="D22">
-        <v>5.75516999309463</v>
-      </c>
-      <c r="F22">
-        <v>1.70638773741014</v>
+        <v>5.95050075376979</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3172,13 +2662,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>2.48432635462976</v>
+        <v>5.86113649295655</v>
       </c>
       <c r="D23">
-        <v>3.34891013913392</v>
-      </c>
-      <c r="F23">
-        <v>2.06569082920953</v>
+        <v>6.23170951305083</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3186,13 +2673,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.86113649295655</v>
+        <v>-11.1425873465534</v>
       </c>
       <c r="D24">
-        <v>3.09999999999999</v>
-      </c>
-      <c r="F24">
-        <v>1.98619587380391</v>
+        <v>3.47505997865608</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3200,13 +2684,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-11.1425873465534</v>
+        <v>-1.12920645748066</v>
       </c>
       <c r="D25">
-        <v>0.7705395838990799</v>
-      </c>
-      <c r="F25">
-        <v>2.77777777777777</v>
+        <v>4.38452888103882</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3214,10 +2695,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-1.12920645748066</v>
+        <v>2.97971532758523</v>
       </c>
       <c r="D26">
-        <v>5.95050075376979</v>
+        <v>-0.08688595788774479</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3225,10 +2706,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.48481463527726</v>
+        <v>-1.89624329159213</v>
       </c>
       <c r="D27">
-        <v>6.23170951305083</v>
+        <v>3.18685539245533</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3236,10 +2717,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>2.6827594088286</v>
+        <v>4.74495015589534</v>
       </c>
       <c r="D28">
-        <v>3.47505997865608</v>
+        <v>1.76078581719408</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3247,10 +2728,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>2.99996090793107</v>
+        <v>1.48481463527726</v>
       </c>
       <c r="D29">
-        <v>4.38452888103882</v>
+        <v>5.66775246034304</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3258,10 +2739,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.33378075529167</v>
+        <v>2.6827594088286</v>
       </c>
       <c r="D30">
-        <v>-0.08688595788774479</v>
+        <v>2.41751181762513</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3269,10 +2750,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>2.60536932770232</v>
+        <v>2.99996090793107</v>
       </c>
       <c r="D31">
-        <v>3.18685539245533</v>
+        <v>-0.164839982463832</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3280,10 +2761,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>3.25053133558204</v>
+        <v>0.33378075529167</v>
       </c>
       <c r="D32">
-        <v>1.76078581719408</v>
+        <v>5.5451305999467</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3291,10 +2772,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>3.08748098290698</v>
+        <v>2.60536932770232</v>
       </c>
       <c r="D33">
-        <v>5.66775246034304</v>
+        <v>5.5024834367041</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3302,10 +2783,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>5.32455148316902</v>
+        <v>3.25053133558204</v>
       </c>
       <c r="D34">
-        <v>2.41751181762513</v>
+        <v>5.05216802016253</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3313,10 +2794,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>-0.171437013034094</v>
+        <v>3.08748098290698</v>
       </c>
       <c r="D35">
-        <v>1.10241649652465</v>
+        <v>1.00000000010023</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3324,26 +2805,32 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.350447153086122</v>
+        <v>5.32455148316902</v>
       </c>
       <c r="D36">
-        <v>-0.164839982463832</v>
+        <v>0.0121051028476558</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>-0.171437013034094</v>
+      </c>
       <c r="D37">
-        <v>5.5451305999467</v>
+        <v>5.55768388791593</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>0.350447153086122</v>
+      </c>
       <c r="D38">
-        <v>5.5024834367041</v>
+        <v>8.364085699078901</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3351,7 +2838,7 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>5.05216802016253</v>
+        <v>-0.445563314095537</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3359,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>1.00000000010023</v>
+        <v>1.1747905277699</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3367,7 +2854,7 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>5.77989967532918</v>
+        <v>3.92080879452831</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3375,7 +2862,7 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>2.37517041432827</v>
+        <v>4.98235047511106</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3383,7 +2870,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>3.98089338257222</v>
+        <v>6.5077747939152</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3391,7 +2878,7 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>2.26564791420599</v>
+        <v>5.61691446889876</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3399,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>0.0121051028476558</v>
+        <v>6.22205315994859</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3407,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>5.55768388791593</v>
+        <v>4.49999999151316</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3415,7 +2902,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>8.364085699078901</v>
+        <v>-5.48182337968868</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3423,7 +2910,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>2.24092224893009</v>
+        <v>0.675702998002407</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3431,7 +2918,7 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>-0.445563314095537</v>
+        <v>3.866856574905</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3439,7 +2926,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>1.1747905277699</v>
+        <v>5.35262742597216</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3447,7 +2934,7 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>3.92080879452831</v>
+        <v>2.65306625480355</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3455,7 +2942,7 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>4.98235047511106</v>
+        <v>-1.68459508133022</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3463,7 +2950,7 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>6.5077747939152</v>
+        <v>5.01928768046282</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3471,7 +2958,7 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>5.61691446889876</v>
+        <v>3.73791851955785</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3479,7 +2966,7 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>6.22205315994859</v>
+        <v>-1.34019766501372</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3487,7 +2974,7 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>4.49999999151316</v>
+        <v>5.51379057542323</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3495,7 +2982,7 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>-5.48182337968868</v>
+        <v>0.892291653822227</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3503,7 +2990,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>0.675702998002407</v>
+        <v>1.95546635784412</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3511,7 +2998,7 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>3.866856574905</v>
+        <v>4.50000000008481</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3519,7 +3006,7 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>5.35262742597216</v>
+        <v>5.11415885767801</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3527,7 +3014,7 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>2.65306625480355</v>
+        <v>4.60062566646762</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3535,7 +3022,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>4.14026321515423</v>
+        <v>7.05410693233065</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3543,7 +3030,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>3.48194560339674</v>
+        <v>-0.539619358229857</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3551,7 +3038,7 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>-1.68459508133022</v>
+        <v>5.4577350924848</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3559,7 +3046,7 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>3.99721243852875</v>
+        <v>-6.91492521808797</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3567,7 +3054,7 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <v>4.00123926011476</v>
+        <v>-2.46729763532686</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3575,7 +3062,7 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>4.05316436873218</v>
+        <v>-11.1956945908638</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3583,7 +3070,7 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>2.74133151736915</v>
+        <v>-0.0639436872584724</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3591,7 +3078,7 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>5.01928768046282</v>
+        <v>2.32881977075081</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3599,7 +3086,7 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>5.25219216894924</v>
+        <v>2.40178115444969</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3607,7 +3094,7 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>3.73791851955785</v>
+        <v>2.60793549462446</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3615,7 +3102,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>-1.34019766501372</v>
+        <v>3.68340389825919</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3623,7 +3110,7 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>5.51379057542323</v>
+        <v>4.4000000000229</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3631,7 +3118,7 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>0.892291653822227</v>
+        <v>6.88368884556108</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3639,7 +3126,7 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>1.95546635784412</v>
+        <v>-0.18590678837252</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3647,7 +3134,7 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>4.50000000008481</v>
+        <v>6.64466373729447</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3655,7 +3142,7 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>5.11415885767801</v>
+        <v>3.91041953840173</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3663,7 +3150,7 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>4.60062566646762</v>
+        <v>4.75616080770808</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3671,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>7.05410693233065</v>
+        <v>6.7504601462238</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3679,7 +3166,7 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>-0.539619358229857</v>
+        <v>4.06294499167197</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3687,7 +3174,7 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>0.681197395551152</v>
+        <v>5.60224421870959</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3695,7 +3182,7 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <v>5.4577350924848</v>
+        <v>2.31460601020051</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3703,7 +3190,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>-6.91492521808797</v>
+        <v>5.75993058973705</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3711,7 +3198,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>-2.46729763532686</v>
+        <v>3.01237590658823</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3719,7 +3206,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>-11.1956945908638</v>
+        <v>5.44818133617287</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3727,7 +3214,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>-0.0639436872584724</v>
+        <v>4.43943825144628</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3735,7 +3222,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>0.725275803986847</v>
+        <v>-0.922335256941111</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3743,7 +3230,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>4.86891868853291</v>
+        <v>5.94139686297071</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3751,7 +3238,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>3.82359506554897</v>
+        <v>2.2084292771582</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3759,7 +3246,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>2.32881977075081</v>
+        <v>-3.77988914400717</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3767,7 +3254,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>3.7847751336618</v>
+        <v>6.65705542802834</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3775,7 +3262,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>4.01300542908088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3783,7 +3270,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>2.40178115444969</v>
+        <v>2.49763692943365</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3791,7 +3278,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>4.70387368649767</v>
+        <v>2.24063176875049</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3799,7 +3286,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>2.60793549462446</v>
+        <v>6.11852566221303</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3807,7 +3294,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>3.68340389825919</v>
+        <v>4.48043062171888</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3815,7 +3302,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>4.4000000000229</v>
+        <v>-0.40185510068001</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3823,7 +3310,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>6.88368884556108</v>
+        <v>4.18826034117856</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3831,7 +3318,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>1.51263326569271</v>
+        <v>2.19807574069797</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3839,7 +3326,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>-0.18590678837252</v>
+        <v>9.46059756132011</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3847,7 +3334,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>6.64466373729447</v>
+        <v>3.9138443956036</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3855,7 +3342,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>4.01611360135388</v>
+        <v>-2.17825104530091</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3863,7 +3350,7 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <v>3.91041953840173</v>
+        <v>4.61362809749708</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3871,7 +3358,7 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <v>4.75616080770808</v>
+        <v>1.20446911937984</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3879,7 +3366,7 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <v>6.7504601462238</v>
+        <v>5.25424120251536</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3887,7 +3374,7 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <v>1.38875484686342</v>
+        <v>2.38258139815673</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3895,7 +3382,7 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <v>4.06294499167197</v>
+        <v>8.081440021913689</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3903,7 +3390,7 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <v>5.60224421870959</v>
+        <v>4.33173490608283</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3911,7 +3398,7 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <v>2.31460601020051</v>
+        <v>2.21085583286091</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3919,7 +3406,7 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <v>5.75993058973705</v>
+        <v>1.09846777827852</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3927,7 +3414,7 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <v>3.01237590658823</v>
+        <v>2.60165587408937</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3935,7 +3422,7 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <v>5.44818133617287</v>
+        <v>3.24718191743429</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3943,7 +3430,7 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <v>4.43943825144628</v>
+        <v>5.45992144835783</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3951,7 +3438,7 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <v>-0.922335256941111</v>
+        <v>2.15165612180819</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3959,7 +3446,7 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <v>5.94139686297071</v>
+        <v>7.40065243179122</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3967,7 +3454,7 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <v>2.2084292771582</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3975,7 +3462,7 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <v>-3.77988914400717</v>
+        <v>19.5358102438791</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3983,7 +3470,7 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <v>6.65705542802834</v>
+        <v>0.734030017207445</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3991,7 +3478,7 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1.32236308925154</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3999,7 +3486,7 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <v>2.18209982327957</v>
+        <v>0.889585160591679</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4007,7 +3494,7 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <v>2.49763692943365</v>
+        <v>13.7931034482759</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4015,7 +3502,7 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <v>2.97971532758523</v>
+        <v>5.79999997709915</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4023,7 +3510,7 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <v>2.24063176875049</v>
+        <v>6.43874503364799</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4031,7 +3518,7 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <v>6.11852566221303</v>
+        <v>3.19950386354134</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4039,7 +3526,7 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <v>-1.89624329159213</v>
+        <v>5.7096322218392</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4047,7 +3534,7 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <v>4.48043062171888</v>
+        <v>0.404012377970602</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4055,7 +3542,7 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <v>4.74495015589534</v>
+        <v>7.15000000000006</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4063,7 +3550,7 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <v>3.18789625598332</v>
+        <v>3.24118765540442</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4071,7 +3558,7 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <v>-0.40185510068001</v>
+        <v>4.37982349765176</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4079,7 +3566,7 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <v>1.36268746558062</v>
+        <v>4.7568306194579</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4087,7 +3574,7 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <v>0.790553881607693</v>
+        <v>1.40000001959719</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4095,7 +3582,7 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <v>4.18826034117856</v>
+        <v>0.113053696742199</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4103,7 +3590,7 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <v>2.19807574069797</v>
+        <v>1.44130602603785</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4111,366 +3598,6 @@
         <v>132</v>
       </c>
       <c r="D134">
-        <v>9.46059756132011</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="D135">
-        <v>3.9138443956036</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="D136">
-        <v>-2.17825104530091</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="D137">
-        <v>4.61362809749708</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138">
-        <v>1.20446911937984</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139">
-        <v>5.25424120251536</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>2.38258139815673</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141">
-        <v>8.081440021913689</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142">
-        <v>4.33173490608283</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143">
-        <v>2.55130199191254</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144">
-        <v>2.55178250806955</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="D145">
-        <v>1.9865685984058</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="D146">
-        <v>2.21085583286091</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147">
-        <v>1.09846777827852</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148">
-        <v>2.60165587408937</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="D149">
-        <v>3.24718191743429</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="D150">
-        <v>5.7801131640218</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151">
-        <v>2.72132584940967</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152">
-        <v>5.45992144835783</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153">
-        <v>2.15165612180819</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="D154">
-        <v>7.40065243179122</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="D156">
-        <v>0.723886005182763</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157">
-        <v>19.5358102438791</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158">
-        <v>1.38901502092041</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="D159">
-        <v>0.734030017207445</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="D160">
-        <v>3.91384439560358</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="D161">
-        <v>2.55178250806961</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162">
-        <v>1.32236308925154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="D163">
-        <v>0.889585160591679</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="D164">
-        <v>13.7931034482759</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="D165">
-        <v>5.79999997709915</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="D166">
-        <v>6.43874503364799</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="D167">
-        <v>3.19950386354134</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168">
-        <v>4.0937692235514</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169">
-        <v>5.7096322218392</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="D170">
-        <v>0.404012377970602</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="D171">
-        <v>7.15000000000006</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172">
-        <v>3.24118765540442</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173">
-        <v>2.61488211866134</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="D174">
-        <v>4.37982349765176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="D175">
-        <v>4.7568306194579</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176">
-        <v>1.40000001959719</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177">
-        <v>0.113053696742199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="D178">
-        <v>1.44130602603785</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179">
         <v>-6.14423631439116</v>
       </c>
     </row>
@@ -4481,7 +3608,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4515,7 +3642,7 @@
         <v>31135.8843563332</v>
       </c>
       <c r="D2">
-        <v>1511.30925874722</v>
+        <v>494.179349886029</v>
       </c>
       <c r="E2">
         <v>189487.14712838</v>
@@ -4535,7 +3662,7 @@
         <v>17376.6496765004</v>
       </c>
       <c r="D3">
-        <v>494.179349886029</v>
+        <v>2177.79901475964</v>
       </c>
       <c r="F3">
         <v>42701.4430454782</v>
@@ -4552,7 +3679,7 @@
         <v>23552.3799480773</v>
       </c>
       <c r="D4">
-        <v>1777.85282247276</v>
+        <v>5396.21586434732</v>
       </c>
       <c r="F4">
         <v>54875.2859563351</v>
@@ -4569,7 +3696,7 @@
         <v>33872.3343072665</v>
       </c>
       <c r="D5">
-        <v>2177.79901475964</v>
+        <v>10076.3552409481</v>
       </c>
       <c r="F5">
         <v>50114.4011099728</v>
@@ -4586,7 +3713,7 @@
         <v>18480.0565925601</v>
       </c>
       <c r="D6">
-        <v>5396.21586434732</v>
+        <v>4604.64632355695</v>
       </c>
       <c r="F6">
         <v>46599.1113350938</v>
@@ -4603,7 +3730,7 @@
         <v>31085.9619255901</v>
       </c>
       <c r="D7">
-        <v>6562.96999763297</v>
+        <v>11715.3601388487</v>
       </c>
       <c r="F7">
         <v>46328.6718408497</v>
@@ -4617,10 +3744,10 @@
         <v>68941.4622272394</v>
       </c>
       <c r="C8">
-        <v>16346.5618056396</v>
+        <v>14699.4627808048</v>
       </c>
       <c r="D8">
-        <v>10076.3552409481</v>
+        <v>4805.75371765917</v>
       </c>
       <c r="F8">
         <v>46794.8992915603</v>
@@ -4637,10 +3764,10 @@
         <v>19024.1772302171</v>
       </c>
       <c r="D9">
-        <v>4604.64632355695</v>
+        <v>223.862875707709</v>
       </c>
       <c r="F9">
-        <v>39195.7748274703</v>
+        <v>48628.641762105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4654,10 +3781,10 @@
         <v>29206.076171875</v>
       </c>
       <c r="D10">
-        <v>11715.3601388487</v>
+        <v>1219.51550596905</v>
       </c>
       <c r="F10">
-        <v>48628.641762105</v>
+        <v>40578.6442850534</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4671,10 +3798,10 @@
         <v>23660.1488068317</v>
       </c>
       <c r="D11">
-        <v>4805.75371765917</v>
+        <v>796.115206827676</v>
       </c>
       <c r="F11">
-        <v>40578.6442850534</v>
+        <v>43070.4983595888</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4685,13 +3812,13 @@
         <v>75719.75289653421</v>
       </c>
       <c r="C12">
-        <v>24914.603370603</v>
+        <v>29554.4905170087</v>
       </c>
       <c r="D12">
-        <v>223.862875707709</v>
+        <v>2154.22681857606</v>
       </c>
       <c r="F12">
-        <v>43070.4983595888</v>
+        <v>53256.2440862119</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4702,13 +3829,13 @@
         <v>62087.9741348946</v>
       </c>
       <c r="C13">
-        <v>29554.4905170087</v>
+        <v>23397.8782560944</v>
       </c>
       <c r="D13">
-        <v>1219.51550596905</v>
+        <v>9879.26853313318</v>
       </c>
       <c r="F13">
-        <v>53256.2440862119</v>
+        <v>38040.5869870588</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4719,13 +3846,13 @@
         <v>65831.1894308765</v>
       </c>
       <c r="C14">
-        <v>23397.8782560944</v>
+        <v>19133.7577636254</v>
       </c>
       <c r="D14">
-        <v>796.115206827676</v>
+        <v>6119.76235142981</v>
       </c>
       <c r="F14">
-        <v>38040.5869870588</v>
+        <v>48356.0635043614</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4736,13 +3863,13 @@
         <v>65094.7994287929</v>
       </c>
       <c r="C15">
-        <v>35089.2827874493</v>
+        <v>15311.766903695</v>
       </c>
       <c r="D15">
-        <v>2154.22681857606</v>
+        <v>6837.71782606351</v>
       </c>
       <c r="F15">
-        <v>44774.7750215677</v>
+        <v>43951.2477305677</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4750,13 +3877,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>19133.7577636254</v>
+        <v>16735.6597794761</v>
       </c>
       <c r="D16">
-        <v>9879.26853313318</v>
+        <v>4983.33611435869</v>
       </c>
       <c r="F16">
-        <v>48356.0635043614</v>
+        <v>40458.0018755824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4764,13 +3891,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>16735.6597794761</v>
+        <v>33673.4754474483</v>
       </c>
       <c r="D17">
-        <v>6119.76235142981</v>
+        <v>3552.06814383653</v>
       </c>
       <c r="F17">
-        <v>43951.2477305677</v>
+        <v>52476.2732533327</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4778,13 +3905,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>33673.4754474483</v>
+        <v>22047.8830270631</v>
       </c>
       <c r="D18">
-        <v>6837.71782606351</v>
+        <v>8876.05983587779</v>
       </c>
       <c r="F18">
-        <v>40458.0018755824</v>
+        <v>42865.233643554</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4792,13 +3919,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>22047.8830270631</v>
+        <v>31902.4169048194</v>
       </c>
       <c r="D19">
-        <v>4983.33611435869</v>
+        <v>3322.86332883678</v>
       </c>
       <c r="F19">
-        <v>52476.2732533327</v>
+        <v>47727.1348939463</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4806,13 +3933,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>31902.4169048194</v>
+        <v>32373.2511149607</v>
       </c>
       <c r="D20">
-        <v>3552.06814383653</v>
+        <v>7247.42947645351</v>
       </c>
       <c r="F20">
-        <v>42865.233643554</v>
+        <v>51939.4297445291</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4820,13 +3947,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>32373.2511149607</v>
+        <v>19575.768481407</v>
       </c>
       <c r="D21">
-        <v>8876.05983587779</v>
+        <v>468.117514792315</v>
       </c>
       <c r="F21">
-        <v>39478.3119684814</v>
+        <v>38596.0307118282</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4834,13 +3961,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>19575.768481407</v>
+        <v>17926.841589919</v>
       </c>
       <c r="D22">
-        <v>3322.86332883678</v>
-      </c>
-      <c r="F22">
-        <v>45728.10122651</v>
+        <v>10143.8381955595</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4848,13 +3972,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>17926.841589919</v>
+        <v>31185.6496235309</v>
       </c>
       <c r="D23">
-        <v>7247.42947645351</v>
-      </c>
-      <c r="F23">
-        <v>47727.1348939463</v>
+        <v>2276.3323939018</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4862,13 +3983,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>31185.6496235309</v>
+        <v>20659.6402915421</v>
       </c>
       <c r="D24">
-        <v>468.117514792315</v>
-      </c>
-      <c r="F24">
-        <v>51939.4297445291</v>
+        <v>1533.09568807789</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4876,13 +3994,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>20659.6402915421</v>
+        <v>17700.7034900714</v>
       </c>
       <c r="D25">
-        <v>14699.4627808048</v>
-      </c>
-      <c r="F25">
-        <v>38596.0307118282</v>
+        <v>596.5605701051099</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4890,10 +4005,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>17700.7034900714</v>
+        <v>15774.2549523836</v>
       </c>
       <c r="D26">
-        <v>10143.8381955595</v>
+        <v>2369.72944099031</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4901,10 +4016,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>32850.5486123592</v>
+        <v>15232.4870840509</v>
       </c>
       <c r="D27">
-        <v>2276.3323939018</v>
+        <v>6418.61578254492</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4912,10 +4027,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>23330.817288932</v>
+        <v>15732.2031311754</v>
       </c>
       <c r="D28">
-        <v>1533.09568807789</v>
+        <v>1404.43318720472</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4923,10 +4038,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>21512.2732970947</v>
+        <v>32850.5486123592</v>
       </c>
       <c r="D29">
-        <v>596.5605701051099</v>
+        <v>3603.77524058462</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4934,10 +4049,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>23450.5620241541</v>
+        <v>23330.817288932</v>
       </c>
       <c r="D30">
-        <v>2369.72944099031</v>
+        <v>12762.1380073688</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4945,10 +4060,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>19303.5456581383</v>
+        <v>21512.2732970947</v>
       </c>
       <c r="D31">
-        <v>6418.61578254492</v>
+        <v>9125.878679495199</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4956,10 +4071,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>25942.9547741436</v>
+        <v>23450.5620241541</v>
       </c>
       <c r="D32">
-        <v>1404.43318720472</v>
+        <v>3172.75068492992</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4967,10 +4082,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>17252.0207802609</v>
+        <v>19303.5456581383</v>
       </c>
       <c r="D33">
-        <v>3603.77524058462</v>
+        <v>8516.280038951611</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4978,10 +4093,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>31350.8666282662</v>
+        <v>25942.9547741436</v>
       </c>
       <c r="D34">
-        <v>12762.1380073688</v>
+        <v>8282.11713050921</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4989,10 +4104,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>17123.1162867028</v>
+        <v>17252.0207802609</v>
       </c>
       <c r="D35">
-        <v>10406.6707101531</v>
+        <v>3989.66827645236</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5000,26 +4115,32 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>17688.01500769</v>
+        <v>31350.8666282662</v>
       </c>
       <c r="D36">
-        <v>9125.878679495199</v>
+        <v>6222.52465327248</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>17123.1162867028</v>
+      </c>
       <c r="D37">
-        <v>3172.75068492992</v>
+        <v>3019.09228346646</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>17688.01500769</v>
+      </c>
       <c r="D38">
-        <v>8516.280038951611</v>
+        <v>855.760885186903</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5027,7 +4148,7 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>8282.11713050921</v>
+        <v>6175.8906526556</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5035,7 +4156,7 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>3989.66827645236</v>
+        <v>3624.24909158279</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5043,7 +4164,7 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>8177.83799959088</v>
+        <v>7766.99655422948</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5051,7 +4172,7 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>3538.83341305865</v>
+        <v>4696.15058555612</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5059,7 +4180,7 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>11494.0915299335</v>
+        <v>2246.62557816432</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5067,7 +4188,7 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>8136.75183449526</v>
+        <v>1052.58809075877</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5075,7 +4196,7 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>6222.52465327248</v>
+        <v>772.5055883088939</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -5083,7 +4204,7 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>3019.09228346646</v>
+        <v>749.453747028806</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5091,7 +4212,7 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>855.760885186903</v>
+        <v>8380.741122387661</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5099,7 +4220,7 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>1905.70041785845</v>
+        <v>10834.495680302</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5107,7 +4228,7 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>6175.8906526556</v>
+        <v>4638.63494319511</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5115,7 +4236,7 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>3624.24909158279</v>
+        <v>6609.51127954588</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5123,7 +4244,7 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>7766.99655422948</v>
+        <v>2574.35675105143</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5131,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>4696.15058555612</v>
+        <v>1312.77063606676</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5139,7 +4260,7 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>2246.62557816432</v>
+        <v>4135.23334351202</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5147,7 +4268,7 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>1052.58809075877</v>
+        <v>2072.24489735041</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -5155,7 +4276,7 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>772.5055883088939</v>
+        <v>3514.0421682578</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5163,7 +4284,7 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>749.453747028806</v>
+        <v>5943.45845510233</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5171,7 +4292,7 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>8380.741122387661</v>
+        <v>5369.4983713849</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -5179,7 +4300,7 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>10834.495680302</v>
+        <v>4405.48710929391</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5187,7 +4308,7 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>4638.63494319511</v>
+        <v>9812.5958082732</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5195,7 +4316,7 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>6609.51127954588</v>
+        <v>1909.30453654793</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5203,7 +4324,7 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>2574.35675105143</v>
+        <v>1374.03210467421</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5211,7 +4332,7 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>994.898280933316</v>
+        <v>1643.12138876539</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5219,7 +4340,7 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>15311.766903695</v>
+        <v>1512.95276955828</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5227,7 +4348,7 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>1312.77063606676</v>
+        <v>2613.94442676868</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5235,7 +4356,7 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>6473.78255095794</v>
+        <v>7527.44305969499</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5243,7 +4364,7 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <v>5168.83751705254</v>
+        <v>672.340499220841</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5251,7 +4372,7 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>1399.11567047963</v>
+        <v>10218.0430276718</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5259,7 +4380,7 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>1852.21911592021</v>
+        <v>11591.0804351768</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5267,7 +4388,7 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>4135.23334351202</v>
+        <v>3848.21237640698</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5275,7 +4396,7 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>1169.69952976992</v>
+        <v>1153.38805839164</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5283,7 +4404,7 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>2072.24489735041</v>
+        <v>3235.00073242188</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5291,7 +4412,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>3514.0421682578</v>
+        <v>4492.10574015947</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5299,7 +4420,7 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>5943.45845510233</v>
+        <v>526.224572187601</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5307,7 +4428,7 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>5369.4983713849</v>
+        <v>10561.6135113508</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5315,7 +4436,7 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>4405.48710929391</v>
+        <v>9950.2176218348</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5323,7 +4444,7 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>9812.5958082732</v>
+        <v>4073.10982973584</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5331,7 +4452,7 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>1909.30453654793</v>
+        <v>6070.38805358275</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5339,7 +4460,7 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>1374.03210467421</v>
+        <v>879.043167526284</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5347,7 +4468,7 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>1643.12138876539</v>
+        <v>1271.11153579726</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5355,7 +4476,7 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>1512.95276955828</v>
+        <v>8909.890151103289</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5363,7 +4484,7 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>8165.36056490621</v>
+        <v>4404.84583020208</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5371,7 +4492,7 @@
         <v>80</v>
       </c>
       <c r="D82">
-        <v>2613.94442676868</v>
+        <v>506.817139131225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5379,7 +4500,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>7527.44305969499</v>
+        <v>1743.30131716071</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5387,7 +4508,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>672.340499220841</v>
+        <v>11097.168977137</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5395,7 +4516,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>10218.0430276718</v>
+        <v>591.847083709889</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5403,7 +4524,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>11591.0804351768</v>
+        <v>11432.8260346567</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5411,7 +4532,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>8699.460717472981</v>
+        <v>5028.29534239511</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5419,7 +4540,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>1105.71706494846</v>
+        <v>554.099389259855</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5427,7 +4548,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>720.474279044071</v>
+        <v>2229.8586518613</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5435,7 +4556,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>3848.21237640698</v>
+        <v>1924.4718155705</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5443,7 +4564,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>2411.33492174599</v>
+        <v>1194.95723579184</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5451,7 +4572,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>4993.61938118882</v>
+        <v>11029.7355824213</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5459,7 +4580,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>1153.38805839164</v>
+        <v>1481.81386417347</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5467,7 +4588,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>9974.505915461979</v>
+        <v>7023.07752627143</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5475,7 +4596,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>3235.00073242188</v>
+        <v>3485.34084390091</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5483,7 +4604,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>4492.10574015947</v>
+        <v>2820.30639749593</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5491,7 +4612,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>526.224572187601</v>
+        <v>5383.57442150776</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5499,7 +4620,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>10561.6135113508</v>
+        <v>12899.3461112897</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5507,7 +4628,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>7587.35559592308</v>
+        <v>11536.2509765625</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5515,7 +4636,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>9950.2176218348</v>
+        <v>820.177239282094</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5523,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>4073.10982973584</v>
+        <v>1987.5683404338</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5531,7 +4652,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>5487.84405800544</v>
+        <v>755.328979492188</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5539,7 +4660,7 @@
         <v>101</v>
       </c>
       <c r="D103">
-        <v>6070.38805358275</v>
+        <v>1435.83036653076</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5547,7 +4668,7 @@
         <v>102</v>
       </c>
       <c r="D104">
-        <v>879.043167526284</v>
+        <v>2344.04897615315</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5555,7 +4676,7 @@
         <v>103</v>
       </c>
       <c r="D105">
-        <v>1271.11153579726</v>
+        <v>521.754836722241</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5563,7 +4684,7 @@
         <v>104</v>
       </c>
       <c r="D106">
-        <v>3574.16267374159</v>
+        <v>4167.73093878563</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5571,7 +4692,7 @@
         <v>105</v>
       </c>
       <c r="D107">
-        <v>8909.890151103289</v>
+        <v>419.39480767899</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5579,7 +4700,7 @@
         <v>106</v>
       </c>
       <c r="D108">
-        <v>4404.84583020208</v>
+        <v>7417.20364852201</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5587,7 +4708,7 @@
         <v>107</v>
       </c>
       <c r="D109">
-        <v>506.817139131225</v>
+        <v>1987.57970166818</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5595,7 +4716,7 @@
         <v>108</v>
       </c>
       <c r="D110">
-        <v>1743.30131716071</v>
+        <v>6853.69341077988</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5603,7 +4724,7 @@
         <v>109</v>
       </c>
       <c r="D111">
-        <v>11097.168977137</v>
+        <v>3889.85122575483</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5611,7 +4732,7 @@
         <v>110</v>
       </c>
       <c r="D112">
-        <v>591.847083709889</v>
+        <v>709.54004317463</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5619,7 +4740,7 @@
         <v>111</v>
       </c>
       <c r="D113">
-        <v>11432.8260346567</v>
+        <v>893.352454121675</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5627,7 +4748,7 @@
         <v>112</v>
       </c>
       <c r="D114">
-        <v>5028.29534239511</v>
+        <v>7814.38443127242</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5635,7 +4756,7 @@
         <v>113</v>
       </c>
       <c r="D115">
-        <v>554.099389259855</v>
+        <v>890.544402355733</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5643,7 +4764,7 @@
         <v>114</v>
       </c>
       <c r="D116">
-        <v>2229.8586518613</v>
+        <v>7612.03518009452</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5651,7 +4772,7 @@
         <v>115</v>
       </c>
       <c r="D117">
-        <v>1924.4718155705</v>
+        <v>1583.71357646622</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5659,7 +4780,7 @@
         <v>116</v>
       </c>
       <c r="D118">
-        <v>1194.95723579184</v>
+        <v>4903.01213835449</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5667,7 +4788,7 @@
         <v>117</v>
       </c>
       <c r="D119">
-        <v>11029.7355824213</v>
+        <v>3571.94504797154</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5675,7 +4796,7 @@
         <v>118</v>
       </c>
       <c r="D120">
-        <v>13799.2955301837</v>
+        <v>9121.515166737079</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5683,7 +4804,7 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <v>1481.81386417347</v>
+        <v>4652.35084630288</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5691,7 +4812,7 @@
         <v>120</v>
       </c>
       <c r="D122">
-        <v>15774.2549523836</v>
+        <v>1085.88488769531</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5699,7 +4820,7 @@
         <v>121</v>
       </c>
       <c r="D123">
-        <v>7023.07752627143</v>
+        <v>798.585734133959</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5707,7 +4828,7 @@
         <v>122</v>
       </c>
       <c r="D124">
-        <v>3485.34084390091</v>
+        <v>3661.45629882813</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5715,7 +4836,7 @@
         <v>123</v>
       </c>
       <c r="D125">
-        <v>15232.4870840509</v>
+        <v>1784.00981608195</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5723,7 +4844,7 @@
         <v>124</v>
       </c>
       <c r="D126">
-        <v>2820.30639749593</v>
+        <v>8229.72248613756</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5731,7 +4852,7 @@
         <v>125</v>
       </c>
       <c r="D127">
-        <v>15732.2031311754</v>
+        <v>3425.08925344793</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5739,7 +4860,7 @@
         <v>126</v>
       </c>
       <c r="D128">
-        <v>1474.82382199805</v>
+        <v>3122.98259856381</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5747,7 +4868,7 @@
         <v>127</v>
       </c>
       <c r="D129">
-        <v>5383.57442150776</v>
+        <v>4322.86841572276</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5755,7 +4876,7 @@
         <v>128</v>
       </c>
       <c r="D130">
-        <v>3656.85827137011</v>
+        <v>4416.10835754636</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5763,7 +4884,7 @@
         <v>129</v>
       </c>
       <c r="D131">
-        <v>4271.58376628044</v>
+        <v>750.554583376727</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5771,7 +4892,7 @@
         <v>130</v>
       </c>
       <c r="D132">
-        <v>12899.3461112897</v>
+        <v>6624.76186493309</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5779,7 +4900,7 @@
         <v>131</v>
       </c>
       <c r="D133">
-        <v>11536.2509765625</v>
+        <v>1305.00103080403</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5787,366 +4908,6 @@
         <v>132</v>
       </c>
       <c r="D134">
-        <v>820.177239282094</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="D135">
-        <v>1987.5683404338</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="D136">
-        <v>755.328979492188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="D137">
-        <v>1435.83036653076</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="D138">
-        <v>2344.04897615315</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="D139">
-        <v>521.754836722241</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>4167.73093878563</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="D141">
-        <v>419.39480767899</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142">
-        <v>7417.20364852201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143">
-        <v>1617.54193226682</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="D144">
-        <v>1618.92077064802</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="D145">
-        <v>12615.1325542735</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="D146">
-        <v>1987.57970166818</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="D147">
-        <v>6853.69341077988</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="D148">
-        <v>3889.85122575483</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="D149">
-        <v>709.54004317463</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="D150">
-        <v>8268.375718166801</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="D151">
-        <v>9026.080646073029</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="D152">
-        <v>893.352454121675</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="D153">
-        <v>7814.38443127242</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="D154">
-        <v>890.544402355733</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="D155">
-        <v>7612.03518009452</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="D156">
-        <v>8519.25442463844</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="D157">
-        <v>1583.71357646622</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="D158">
-        <v>3573.15570230824</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="D159">
-        <v>4903.01213835449</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="D160">
-        <v>1987.5683404338</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="D161">
-        <v>1618.92077064803</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="D162">
-        <v>3571.94504797154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="D163">
-        <v>9121.515166737079</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="D164">
-        <v>4652.35084630288</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="D165">
-        <v>1085.88488769531</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="D166">
-        <v>798.585734133959</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="D167">
-        <v>3661.45629882813</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="D168">
-        <v>9548.20023835792</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="D169">
-        <v>1784.00981608195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="D170">
-        <v>8229.72248613756</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="D171">
-        <v>3425.08925344793</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="D172">
-        <v>3122.98259856381</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="D173">
-        <v>11407.4793339488</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="D174">
-        <v>4322.86841572276</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="D175">
-        <v>4416.10835754636</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="D176">
-        <v>750.554583376727</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="D177">
-        <v>6624.76186493309</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="D178">
-        <v>1305.00103080403</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="D179">
         <v>1316.74065692871</v>
       </c>
     </row>
